--- a/medicine/Psychotrope/Brasserie_Au_Baron/Brasserie_Au_Baron.xlsx
+++ b/medicine/Psychotrope/Brasserie_Au_Baron/Brasserie_Au_Baron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brasserie Au Baron, propriété de la famille Bailleux est située à Gussignies dans le département du Nord.
-Elle est exploitée par la société Au Baron[1].
+Elle est exploitée par la société Au Baron.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie sort sa première bière, la Saint-Médard, en 1989.
-En 2015, elle produit, en partenariat avec le brasseur américain Jester King (en), une nouvelle bière : « Noblesse oblige ». Destinée uniquement à l'exportation aux États-Unis, cette bière contient du miel[2]. 
+En 2015, elle produit, en partenariat avec le brasseur américain Jester King (en), une nouvelle bière : « Noblesse oblige ». Destinée uniquement à l'exportation aux États-Unis, cette bière contient du miel. 
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Présentation</t>
         </is>
